--- a/data_processed/20250819/BTCUSDQMOMENT_20250819.xlsx
+++ b/data_processed/20250819/BTCUSDQMOMENT_20250819.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>13.30010197417358</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.2920432377888471</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1126628593094076</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.6791700562381042</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.591575756073917</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -864,10 +872,18 @@
       <c r="H12" t="n">
         <v>13.22780089573021</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>-0.09340982480822607</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.03509831356904334</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.3797560568647471</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.922929931946162</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +914,18 @@
       <c r="H13" t="n">
         <v>8.461148375507634</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>-0.1816609049986487</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.07681378770212414</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.6949592617086884</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.366446696117301</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -968,10 +992,18 @@
       <c r="H15" t="n">
         <v>20.52676154962014</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>-0.2108672473204946</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.07318313726210456</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.4092894075278155</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.10392564033197</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1086,10 +1118,18 @@
       <c r="H18" t="n">
         <v>10.13530436271165</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.4762472372781644</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1369078737662411</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.00321483838635471</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.875983085926304</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250819/BTCUSDQMOMENT_20250819.xlsx
+++ b/data_processed/20250819/BTCUSDQMOMENT_20250819.xlsx
@@ -1160,10 +1160,18 @@
       <c r="H19" t="n">
         <v>7.814295974217599</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.4136749362997461</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1266985367328312</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.1582366148292134</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.04042933805079</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250819/BTCUSDQMOMENT_20250819.xlsx
+++ b/data_processed/20250819/BTCUSDQMOMENT_20250819.xlsx
@@ -756,19 +756,19 @@
         <v>0.852054794520548</v>
       </c>
       <c r="D9" t="n">
-        <v>119311.2550001256</v>
+        <v>119331.1888996099</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08736256814702437</v>
+        <v>-0.08567331759433981</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3473256545289836</v>
+        <v>0.3360058191039166</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.794350144896764</v>
+        <v>-1.557671579805229</v>
       </c>
       <c r="H9" t="n">
-        <v>12.31691622885303</v>
+        <v>10.04200035094302</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.101369863013699</v>
       </c>
       <c r="D10" t="n">
-        <v>120824.6004964329</v>
+        <v>120823.8872333461</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1229625549687394</v>
+        <v>-0.1221290607987758</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4488866580034235</v>
+        <v>0.4423840516989567</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.963245138802151</v>
+        <v>-1.883259025656171</v>
       </c>
       <c r="H10" t="n">
-        <v>10.13371292967563</v>
+        <v>9.447172317139584</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.347945205479452</v>
       </c>
       <c r="D11" t="n">
-        <v>122787.9881945788</v>
+        <v>122766.0462835769</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1878561224126774</v>
+        <v>-0.1971808894111483</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6940216837823092</v>
+        <v>0.765067017845186</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.219661247083886</v>
+        <v>-2.542432795193405</v>
       </c>
       <c r="H11" t="n">
-        <v>9.491752246854299</v>
+        <v>12.16191994541689</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -858,19 +858,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D12" t="n">
-        <v>113249.5583362894</v>
+        <v>113271.8445632598</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.09452032295197073</v>
+        <v>-0.09227009372118057</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2104731946853277</v>
+        <v>0.1970609302702817</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.635631822206884</v>
+        <v>-1.104622018013555</v>
       </c>
       <c r="H12" t="n">
-        <v>13.22780089573021</v>
+        <v>8.165384038332004</v>
       </c>
       <c r="I12" t="n">
         <v>-0.09340982480822607</v>
@@ -978,19 +978,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D15" t="n">
-        <v>113241.9587578922</v>
+        <v>113304.0261153597</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.08516442077873235</v>
+        <v>-0.07971892629489022</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1998641396975879</v>
+        <v>0.1711120050011246</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.180925155966794</v>
+        <v>-0.9924053257321986</v>
       </c>
       <c r="H15" t="n">
-        <v>20.52676154962014</v>
+        <v>9.64387354538392</v>
       </c>
       <c r="I15" t="n">
         <v>-0.2108672473204946</v>

--- a/data_processed/20250819/BTCUSDQMOMENT_20250819.xlsx
+++ b/data_processed/20250819/BTCUSDQMOMENT_20250819.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.53987039751357</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.2583378382159642</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1700193550402816</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.2245741170075495</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.128247644277041</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1202,10 +1210,18 @@
       <c r="H20" t="n">
         <v>6.160679801535066</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.266188325144267</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.177469883627903</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.1905478781610373</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.083429662032082</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250819/BTCUSDQMOMENT_20250819.xlsx
+++ b/data_processed/20250819/BTCUSDQMOMENT_20250819.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>10.55689381395363</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.1772000188674474</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4772399240310436</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7597635802022941</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.304213389742004</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
